--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="176">
   <si>
     <t>Result Date</t>
   </si>
@@ -454,6 +454,96 @@
   </si>
   <si>
     <t>A0508604</t>
+  </si>
+  <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge3428</t>
+  </si>
+  <si>
+    <t>A0781601</t>
+  </si>
+  <si>
+    <t>20210727-TestAut-PA-13428</t>
+  </si>
+  <si>
+    <t>A0781610</t>
+  </si>
+  <si>
+    <t>A0781611</t>
+  </si>
+  <si>
+    <t>A0781612</t>
+  </si>
+  <si>
+    <t>A0781602</t>
+  </si>
+  <si>
+    <t>A0781603</t>
+  </si>
+  <si>
+    <t>A0781604</t>
+  </si>
+  <si>
+    <t>A0781605</t>
+  </si>
+  <si>
+    <t>A0781606</t>
+  </si>
+  <si>
+    <t>A0781607</t>
+  </si>
+  <si>
+    <t>A0781608</t>
+  </si>
+  <si>
+    <t>A0781609</t>
+  </si>
+  <si>
+    <t>07/27/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge2524</t>
+  </si>
+  <si>
+    <t>A0818901</t>
+  </si>
+  <si>
+    <t>20210727-TestAut-PA-2524</t>
+  </si>
+  <si>
+    <t>A0818910</t>
+  </si>
+  <si>
+    <t>A0818911</t>
+  </si>
+  <si>
+    <t>A0818912</t>
+  </si>
+  <si>
+    <t>A0818902</t>
+  </si>
+  <si>
+    <t>A0818903</t>
+  </si>
+  <si>
+    <t>A0818904</t>
+  </si>
+  <si>
+    <t>A0818905</t>
+  </si>
+  <si>
+    <t>A0818906</t>
+  </si>
+  <si>
+    <t>A0818907</t>
+  </si>
+  <si>
+    <t>A0818908</t>
+  </si>
+  <si>
+    <t>A0818909</t>
   </si>
 </sst>
 </file>
@@ -931,16 +1021,16 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -958,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T2" t="s">
         <v>29</v>
@@ -975,16 +1065,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1002,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T3" t="s">
         <v>29</v>
@@ -1019,16 +1109,16 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1046,7 +1136,7 @@
         <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T4" t="s">
         <v>29</v>
@@ -1063,16 +1153,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1090,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
@@ -1107,16 +1197,16 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -1134,7 +1224,7 @@
         <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T6" t="s">
         <v>29</v>
@@ -1151,16 +1241,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -1178,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T7" t="s">
         <v>29</v>
@@ -1195,16 +1285,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1222,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T8" t="s">
         <v>29</v>
@@ -1239,16 +1329,16 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -1266,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T9" t="s">
         <v>29</v>
@@ -1283,16 +1373,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1310,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T10" t="s">
         <v>29</v>
@@ -1327,16 +1417,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1354,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T11" t="s">
         <v>29</v>
@@ -1371,16 +1461,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1398,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="R12" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T12" t="s">
         <v>29</v>
@@ -1415,16 +1505,16 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1442,7 +1532,7 @@
         <v>27</v>
       </c>
       <c r="R13" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="T13" t="s">
         <v>29</v>

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="137">
   <si>
     <t>Result Date</t>
   </si>
@@ -262,6 +262,189 @@
   </si>
   <si>
     <t>A0823205</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge5637</t>
+  </si>
+  <si>
+    <t>A0830401</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-PA-15637</t>
+  </si>
+  <si>
+    <t>A0830410</t>
+  </si>
+  <si>
+    <t>A0830411</t>
+  </si>
+  <si>
+    <t>A0830412</t>
+  </si>
+  <si>
+    <t>A0830402</t>
+  </si>
+  <si>
+    <t>A0830403</t>
+  </si>
+  <si>
+    <t>A0830404</t>
+  </si>
+  <si>
+    <t>A0830405</t>
+  </si>
+  <si>
+    <t>A0830406</t>
+  </si>
+  <si>
+    <t>A0830407</t>
+  </si>
+  <si>
+    <t>A0830408</t>
+  </si>
+  <si>
+    <t>A0830409</t>
+  </si>
+  <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge5128</t>
+  </si>
+  <si>
+    <t>A0781611</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-PA-15128</t>
+  </si>
+  <si>
+    <t>A0781601</t>
+  </si>
+  <si>
+    <t>A0781612</t>
+  </si>
+  <si>
+    <t>A0781610</t>
+  </si>
+  <si>
+    <t>A0781602</t>
+  </si>
+  <si>
+    <t>A0781603</t>
+  </si>
+  <si>
+    <t>A0781604</t>
+  </si>
+  <si>
+    <t>A0781605</t>
+  </si>
+  <si>
+    <t>A0781606</t>
+  </si>
+  <si>
+    <t>A0781607</t>
+  </si>
+  <si>
+    <t>A0781608</t>
+  </si>
+  <si>
+    <t>A0781609</t>
+  </si>
+  <si>
+    <t>TestCartridge1516</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-PA-11516</t>
+  </si>
+  <si>
+    <t>TestCartridge4907</t>
+  </si>
+  <si>
+    <t>A0830901</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-PA-14907</t>
+  </si>
+  <si>
+    <t>A0830910</t>
+  </si>
+  <si>
+    <t>A0830911</t>
+  </si>
+  <si>
+    <t>A0830912</t>
+  </si>
+  <si>
+    <t>A0830902</t>
+  </si>
+  <si>
+    <t>A0830903</t>
+  </si>
+  <si>
+    <t>A0830904</t>
+  </si>
+  <si>
+    <t>A0830905</t>
+  </si>
+  <si>
+    <t>A0830906</t>
+  </si>
+  <si>
+    <t>A0830907</t>
+  </si>
+  <si>
+    <t>A0830908</t>
+  </si>
+  <si>
+    <t>A0830909</t>
+  </si>
+  <si>
+    <t>08/06/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge2321</t>
+  </si>
+  <si>
+    <t>A0831306</t>
+  </si>
+  <si>
+    <t>20210806-TestAut-PA-32321</t>
+  </si>
+  <si>
+    <t>A0831307</t>
+  </si>
+  <si>
+    <t>A0831308</t>
+  </si>
+  <si>
+    <t>A0831309</t>
+  </si>
+  <si>
+    <t>A0831301</t>
+  </si>
+  <si>
+    <t>A0831310</t>
+  </si>
+  <si>
+    <t>A0831311</t>
+  </si>
+  <si>
+    <t>A0831312</t>
+  </si>
+  <si>
+    <t>A0831302</t>
+  </si>
+  <si>
+    <t>A0831303</t>
+  </si>
+  <si>
+    <t>A0831304</t>
+  </si>
+  <si>
+    <t>A0831305</t>
   </si>
 </sst>
 </file>
@@ -718,22 +901,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -753,7 +936,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -771,22 +954,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -806,7 +989,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -824,22 +1007,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -859,7 +1042,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -877,22 +1060,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -912,7 +1095,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -930,22 +1113,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -965,7 +1148,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -983,22 +1166,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -1018,7 +1201,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -1036,22 +1219,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -1071,7 +1254,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -1089,22 +1272,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -1124,7 +1307,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -1142,22 +1325,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1177,7 +1360,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -1195,22 +1378,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1230,7 +1413,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -1248,22 +1431,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1283,7 +1466,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -1301,22 +1484,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1336,7 +1519,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="240">
   <si>
     <t>Result Date</t>
   </si>
@@ -445,6 +445,315 @@
   </si>
   <si>
     <t>A0831305</t>
+  </si>
+  <si>
+    <t>09/06/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge4512</t>
+  </si>
+  <si>
+    <t>A0895008</t>
+  </si>
+  <si>
+    <t>20210906-TestAut-PA-14512</t>
+  </si>
+  <si>
+    <t>A0895009</t>
+  </si>
+  <si>
+    <t>A0895010</t>
+  </si>
+  <si>
+    <t>A0895011</t>
+  </si>
+  <si>
+    <t>A0895012</t>
+  </si>
+  <si>
+    <t>A0895001</t>
+  </si>
+  <si>
+    <t>A0895002</t>
+  </si>
+  <si>
+    <t>A0895003</t>
+  </si>
+  <si>
+    <t>A0895004</t>
+  </si>
+  <si>
+    <t>A0895005</t>
+  </si>
+  <si>
+    <t>A0895006</t>
+  </si>
+  <si>
+    <t>A0895007</t>
+  </si>
+  <si>
+    <t>TestCartridge2652</t>
+  </si>
+  <si>
+    <t>A0895401</t>
+  </si>
+  <si>
+    <t>20210906-TestAut-PA-22652</t>
+  </si>
+  <si>
+    <t>A0895402</t>
+  </si>
+  <si>
+    <t>A0895403</t>
+  </si>
+  <si>
+    <t>A0895404</t>
+  </si>
+  <si>
+    <t>A0895405</t>
+  </si>
+  <si>
+    <t>A0895406</t>
+  </si>
+  <si>
+    <t>A0895407</t>
+  </si>
+  <si>
+    <t>A0895408</t>
+  </si>
+  <si>
+    <t>A0895409</t>
+  </si>
+  <si>
+    <t>A0895410</t>
+  </si>
+  <si>
+    <t>A0895411</t>
+  </si>
+  <si>
+    <t>A0895412</t>
+  </si>
+  <si>
+    <t>AT_SampleMatrix35</t>
+  </si>
+  <si>
+    <t>20210906-TestAut-PA-32652</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge3119</t>
+  </si>
+  <si>
+    <t>A0910701</t>
+  </si>
+  <si>
+    <t>20210907-TestAut-PA-23119</t>
+  </si>
+  <si>
+    <t>A0903008</t>
+  </si>
+  <si>
+    <t>A0910702</t>
+  </si>
+  <si>
+    <t>A0903009</t>
+  </si>
+  <si>
+    <t>A0910703</t>
+  </si>
+  <si>
+    <t>A0903010</t>
+  </si>
+  <si>
+    <t>A0911209</t>
+  </si>
+  <si>
+    <t>A0903011</t>
+  </si>
+  <si>
+    <t>A0911210</t>
+  </si>
+  <si>
+    <t>A0903012</t>
+  </si>
+  <si>
+    <t>A0911211</t>
+  </si>
+  <si>
+    <t>A0903101</t>
+  </si>
+  <si>
+    <t>TestCartridge2912</t>
+  </si>
+  <si>
+    <t>A0913311</t>
+  </si>
+  <si>
+    <t>20210907-TestAut-PA-22912</t>
+  </si>
+  <si>
+    <t>A0913312</t>
+  </si>
+  <si>
+    <t>A0913301</t>
+  </si>
+  <si>
+    <t>A0913302</t>
+  </si>
+  <si>
+    <t>A0913303</t>
+  </si>
+  <si>
+    <t>A0913304</t>
+  </si>
+  <si>
+    <t>A0913305</t>
+  </si>
+  <si>
+    <t>A0913306</t>
+  </si>
+  <si>
+    <t>A0913307</t>
+  </si>
+  <si>
+    <t>A0913308</t>
+  </si>
+  <si>
+    <t>A0913309</t>
+  </si>
+  <si>
+    <t>A0913310</t>
+  </si>
+  <si>
+    <t>09/09/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge1157</t>
+  </si>
+  <si>
+    <t>A0923001</t>
+  </si>
+  <si>
+    <t>20210909-TestAut-PA-21157</t>
+  </si>
+  <si>
+    <t>A0923002</t>
+  </si>
+  <si>
+    <t>A0923003</t>
+  </si>
+  <si>
+    <t>A0923004</t>
+  </si>
+  <si>
+    <t>A0923005</t>
+  </si>
+  <si>
+    <t>A0923006</t>
+  </si>
+  <si>
+    <t>A0923007</t>
+  </si>
+  <si>
+    <t>A0923008</t>
+  </si>
+  <si>
+    <t>A0923009</t>
+  </si>
+  <si>
+    <t>A0923010</t>
+  </si>
+  <si>
+    <t>A0923011</t>
+  </si>
+  <si>
+    <t>A0923012</t>
+  </si>
+  <si>
+    <t>TestCartridge1308</t>
+  </si>
+  <si>
+    <t>A0924908</t>
+  </si>
+  <si>
+    <t>20210909-TestAut-PA-21308</t>
+  </si>
+  <si>
+    <t>A0924909</t>
+  </si>
+  <si>
+    <t>A0924910</t>
+  </si>
+  <si>
+    <t>A0924911</t>
+  </si>
+  <si>
+    <t>A0924912</t>
+  </si>
+  <si>
+    <t>A0924901</t>
+  </si>
+  <si>
+    <t>A0924902</t>
+  </si>
+  <si>
+    <t>A0924903</t>
+  </si>
+  <si>
+    <t>A0924904</t>
+  </si>
+  <si>
+    <t>A0924905</t>
+  </si>
+  <si>
+    <t>A0924906</t>
+  </si>
+  <si>
+    <t>A0924907</t>
+  </si>
+  <si>
+    <t>TestCartridge5251</t>
+  </si>
+  <si>
+    <t>A0925801</t>
+  </si>
+  <si>
+    <t>20210909-TestAut-PA-35251</t>
+  </si>
+  <si>
+    <t>A0925802</t>
+  </si>
+  <si>
+    <t>A0925803</t>
+  </si>
+  <si>
+    <t>A0925804</t>
+  </si>
+  <si>
+    <t>A0925805</t>
+  </si>
+  <si>
+    <t>A0925806</t>
+  </si>
+  <si>
+    <t>A0925807</t>
+  </si>
+  <si>
+    <t>A0925808</t>
+  </si>
+  <si>
+    <t>A0925809</t>
+  </si>
+  <si>
+    <t>A0925810</t>
+  </si>
+  <si>
+    <t>A0925811</t>
+  </si>
+  <si>
+    <t>A0925812</t>
   </si>
 </sst>
 </file>
@@ -901,22 +1210,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -936,7 +1245,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -954,22 +1263,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -989,7 +1298,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -1007,22 +1316,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -1042,7 +1351,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -1060,22 +1369,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -1095,7 +1404,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -1113,22 +1422,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -1148,7 +1457,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -1166,22 +1475,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -1201,7 +1510,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -1219,22 +1528,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -1254,7 +1563,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -1272,22 +1581,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -1307,7 +1616,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -1325,22 +1634,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1360,7 +1669,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -1378,22 +1687,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1413,7 +1722,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -1431,22 +1740,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1466,7 +1775,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -1484,22 +1793,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1519,7 +1828,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="684">
   <si>
     <t>Result Date</t>
   </si>
@@ -754,6 +754,1338 @@
   </si>
   <si>
     <t>A0925812</t>
+  </si>
+  <si>
+    <t>09/14/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge0511</t>
+  </si>
+  <si>
+    <t>A0939001</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-20511</t>
+  </si>
+  <si>
+    <t>A0939002</t>
+  </si>
+  <si>
+    <t>A0939003</t>
+  </si>
+  <si>
+    <t>A0939004</t>
+  </si>
+  <si>
+    <t>A0939005</t>
+  </si>
+  <si>
+    <t>A0939006</t>
+  </si>
+  <si>
+    <t>A0939007</t>
+  </si>
+  <si>
+    <t>A0939008</t>
+  </si>
+  <si>
+    <t>A0939009</t>
+  </si>
+  <si>
+    <t>A0939010</t>
+  </si>
+  <si>
+    <t>A0939011</t>
+  </si>
+  <si>
+    <t>A0939012</t>
+  </si>
+  <si>
+    <t>TestCartridge2946</t>
+  </si>
+  <si>
+    <t>A0940201</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-22946</t>
+  </si>
+  <si>
+    <t>A0940202</t>
+  </si>
+  <si>
+    <t>A0940203</t>
+  </si>
+  <si>
+    <t>A0940204</t>
+  </si>
+  <si>
+    <t>A0940205</t>
+  </si>
+  <si>
+    <t>A0940206</t>
+  </si>
+  <si>
+    <t>A0940207</t>
+  </si>
+  <si>
+    <t>A0940208</t>
+  </si>
+  <si>
+    <t>A0940209</t>
+  </si>
+  <si>
+    <t>A0940210</t>
+  </si>
+  <si>
+    <t>A0940211</t>
+  </si>
+  <si>
+    <t>A0940212</t>
+  </si>
+  <si>
+    <t>A0940301</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-32946</t>
+  </si>
+  <si>
+    <t>A0940302</t>
+  </si>
+  <si>
+    <t>A0940303</t>
+  </si>
+  <si>
+    <t>A0940304</t>
+  </si>
+  <si>
+    <t>A0940305</t>
+  </si>
+  <si>
+    <t>A0940306</t>
+  </si>
+  <si>
+    <t>A0940307</t>
+  </si>
+  <si>
+    <t>A0940308</t>
+  </si>
+  <si>
+    <t>A0940309</t>
+  </si>
+  <si>
+    <t>A0940310</t>
+  </si>
+  <si>
+    <t>A0940311</t>
+  </si>
+  <si>
+    <t>A0940312</t>
+  </si>
+  <si>
+    <t>TestCartridge1144</t>
+  </si>
+  <si>
+    <t>A0941701</t>
+  </si>
+  <si>
+    <t>AT_SampleMatrixListeria35</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-61144</t>
+  </si>
+  <si>
+    <t>A0941702</t>
+  </si>
+  <si>
+    <t>A0941703</t>
+  </si>
+  <si>
+    <t>A0941704</t>
+  </si>
+  <si>
+    <t>A0941705</t>
+  </si>
+  <si>
+    <t>A0941706</t>
+  </si>
+  <si>
+    <t>A0941707</t>
+  </si>
+  <si>
+    <t>A0941708</t>
+  </si>
+  <si>
+    <t>A0941709</t>
+  </si>
+  <si>
+    <t>A0941710</t>
+  </si>
+  <si>
+    <t>A0941711</t>
+  </si>
+  <si>
+    <t>A0941712</t>
+  </si>
+  <si>
+    <t>TestCartridge0854</t>
+  </si>
+  <si>
+    <t>A0942401</t>
+  </si>
+  <si>
+    <t>AT_SampleMatrixListeria2</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-50854</t>
+  </si>
+  <si>
+    <t>A0942402</t>
+  </si>
+  <si>
+    <t>A0942403</t>
+  </si>
+  <si>
+    <t>A0942404</t>
+  </si>
+  <si>
+    <t>A0942405</t>
+  </si>
+  <si>
+    <t>A0942406</t>
+  </si>
+  <si>
+    <t>A0942407</t>
+  </si>
+  <si>
+    <t>A0942408</t>
+  </si>
+  <si>
+    <t>A0942409</t>
+  </si>
+  <si>
+    <t>A0942410</t>
+  </si>
+  <si>
+    <t>A0942411</t>
+  </si>
+  <si>
+    <t>A0942412</t>
+  </si>
+  <si>
+    <t>A0942508</t>
+  </si>
+  <si>
+    <t>20210914-TestAut-PA-60854</t>
+  </si>
+  <si>
+    <t>A0942509</t>
+  </si>
+  <si>
+    <t>A0942510</t>
+  </si>
+  <si>
+    <t>A0942511</t>
+  </si>
+  <si>
+    <t>A0942512</t>
+  </si>
+  <si>
+    <t>A0942501</t>
+  </si>
+  <si>
+    <t>A0942502</t>
+  </si>
+  <si>
+    <t>A0942503</t>
+  </si>
+  <si>
+    <t>A0942504</t>
+  </si>
+  <si>
+    <t>A0942505</t>
+  </si>
+  <si>
+    <t>A0942506</t>
+  </si>
+  <si>
+    <t>A0942507</t>
+  </si>
+  <si>
+    <t>09/15/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge1205</t>
+  </si>
+  <si>
+    <t>A0944301</t>
+  </si>
+  <si>
+    <t>20210915-TestAut-PA-21205</t>
+  </si>
+  <si>
+    <t>A0944302</t>
+  </si>
+  <si>
+    <t>A0944303</t>
+  </si>
+  <si>
+    <t>A0944304</t>
+  </si>
+  <si>
+    <t>A0944305</t>
+  </si>
+  <si>
+    <t>A0944306</t>
+  </si>
+  <si>
+    <t>A0944307</t>
+  </si>
+  <si>
+    <t>A0944308</t>
+  </si>
+  <si>
+    <t>A0944309</t>
+  </si>
+  <si>
+    <t>A0944310</t>
+  </si>
+  <si>
+    <t>A0944311</t>
+  </si>
+  <si>
+    <t>A0944312</t>
+  </si>
+  <si>
+    <t>A0944801</t>
+  </si>
+  <si>
+    <t>20210915-TestAut-PA-31205</t>
+  </si>
+  <si>
+    <t>A0944802</t>
+  </si>
+  <si>
+    <t>A0944803</t>
+  </si>
+  <si>
+    <t>A0944804</t>
+  </si>
+  <si>
+    <t>A0944805</t>
+  </si>
+  <si>
+    <t>A0944806</t>
+  </si>
+  <si>
+    <t>A0944807</t>
+  </si>
+  <si>
+    <t>A0944808</t>
+  </si>
+  <si>
+    <t>A0944809</t>
+  </si>
+  <si>
+    <t>A0944810</t>
+  </si>
+  <si>
+    <t>A0944811</t>
+  </si>
+  <si>
+    <t>A0944812</t>
+  </si>
+  <si>
+    <t>A0945301</t>
+  </si>
+  <si>
+    <t>20210915-TestAut-PA-51205</t>
+  </si>
+  <si>
+    <t>A0945302</t>
+  </si>
+  <si>
+    <t>A0945303</t>
+  </si>
+  <si>
+    <t>A0945304</t>
+  </si>
+  <si>
+    <t>A0945305</t>
+  </si>
+  <si>
+    <t>A0945306</t>
+  </si>
+  <si>
+    <t>A0945307</t>
+  </si>
+  <si>
+    <t>A0945308</t>
+  </si>
+  <si>
+    <t>A0945309</t>
+  </si>
+  <si>
+    <t>A0945310</t>
+  </si>
+  <si>
+    <t>A0945311</t>
+  </si>
+  <si>
+    <t>A0945312</t>
+  </si>
+  <si>
+    <t>A0945601</t>
+  </si>
+  <si>
+    <t>20210915-TestAut-PA-61205</t>
+  </si>
+  <si>
+    <t>A0945602</t>
+  </si>
+  <si>
+    <t>A0945603</t>
+  </si>
+  <si>
+    <t>A0945604</t>
+  </si>
+  <si>
+    <t>A0945605</t>
+  </si>
+  <si>
+    <t>A0945606</t>
+  </si>
+  <si>
+    <t>A0945607</t>
+  </si>
+  <si>
+    <t>A0945608</t>
+  </si>
+  <si>
+    <t>A0945609</t>
+  </si>
+  <si>
+    <t>A0945610</t>
+  </si>
+  <si>
+    <t>A0945611</t>
+  </si>
+  <si>
+    <t>A0945612</t>
+  </si>
+  <si>
+    <t>09/16/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge3959</t>
+  </si>
+  <si>
+    <t>A0954701</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-23959</t>
+  </si>
+  <si>
+    <t>A0954702</t>
+  </si>
+  <si>
+    <t>A0954703</t>
+  </si>
+  <si>
+    <t>A0954704</t>
+  </si>
+  <si>
+    <t>A0954705</t>
+  </si>
+  <si>
+    <t>A0954706</t>
+  </si>
+  <si>
+    <t>A0954707</t>
+  </si>
+  <si>
+    <t>A0954708</t>
+  </si>
+  <si>
+    <t>A0954709</t>
+  </si>
+  <si>
+    <t>A0954710</t>
+  </si>
+  <si>
+    <t>A0954711</t>
+  </si>
+  <si>
+    <t>A0954712</t>
+  </si>
+  <si>
+    <t>05/21/2020</t>
+  </si>
+  <si>
+    <t>A0387112</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-33959</t>
+  </si>
+  <si>
+    <t>A0387111</t>
+  </si>
+  <si>
+    <t>A0387110</t>
+  </si>
+  <si>
+    <t>A0387109</t>
+  </si>
+  <si>
+    <t>A0387108</t>
+  </si>
+  <si>
+    <t>A0387107</t>
+  </si>
+  <si>
+    <t>A0387106</t>
+  </si>
+  <si>
+    <t>A0387105</t>
+  </si>
+  <si>
+    <t>A0387104</t>
+  </si>
+  <si>
+    <t>A0387103</t>
+  </si>
+  <si>
+    <t>A0387102</t>
+  </si>
+  <si>
+    <t>A0387101</t>
+  </si>
+  <si>
+    <t>A0955101</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-53959</t>
+  </si>
+  <si>
+    <t>A0955102</t>
+  </si>
+  <si>
+    <t>A0955103</t>
+  </si>
+  <si>
+    <t>A0955104</t>
+  </si>
+  <si>
+    <t>A0955105</t>
+  </si>
+  <si>
+    <t>A0955106</t>
+  </si>
+  <si>
+    <t>A0955107</t>
+  </si>
+  <si>
+    <t>A0955108</t>
+  </si>
+  <si>
+    <t>A0955109</t>
+  </si>
+  <si>
+    <t>A0955110</t>
+  </si>
+  <si>
+    <t>A0955111</t>
+  </si>
+  <si>
+    <t>A0955112</t>
+  </si>
+  <si>
+    <t>A0955401</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-63959</t>
+  </si>
+  <si>
+    <t>A0955402</t>
+  </si>
+  <si>
+    <t>A0955403</t>
+  </si>
+  <si>
+    <t>A0955404</t>
+  </si>
+  <si>
+    <t>A0955405</t>
+  </si>
+  <si>
+    <t>A0955406</t>
+  </si>
+  <si>
+    <t>A0955407</t>
+  </si>
+  <si>
+    <t>A0955408</t>
+  </si>
+  <si>
+    <t>A0955409</t>
+  </si>
+  <si>
+    <t>A0955410</t>
+  </si>
+  <si>
+    <t>A0955411</t>
+  </si>
+  <si>
+    <t>A0955412</t>
+  </si>
+  <si>
+    <t>TestCartridge5730</t>
+  </si>
+  <si>
+    <t>A0956501</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-25730</t>
+  </si>
+  <si>
+    <t>A0956502</t>
+  </si>
+  <si>
+    <t>A0956503</t>
+  </si>
+  <si>
+    <t>A0956504</t>
+  </si>
+  <si>
+    <t>A0956505</t>
+  </si>
+  <si>
+    <t>A0956506</t>
+  </si>
+  <si>
+    <t>A0956507</t>
+  </si>
+  <si>
+    <t>A0956508</t>
+  </si>
+  <si>
+    <t>A0956509</t>
+  </si>
+  <si>
+    <t>A0956510</t>
+  </si>
+  <si>
+    <t>A0956511</t>
+  </si>
+  <si>
+    <t>A0956512</t>
+  </si>
+  <si>
+    <t>TestCartridge2819</t>
+  </si>
+  <si>
+    <t>A0956801</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-22819</t>
+  </si>
+  <si>
+    <t>A0956802</t>
+  </si>
+  <si>
+    <t>A0956803</t>
+  </si>
+  <si>
+    <t>A0956804</t>
+  </si>
+  <si>
+    <t>A0956805</t>
+  </si>
+  <si>
+    <t>A0956806</t>
+  </si>
+  <si>
+    <t>A0956807</t>
+  </si>
+  <si>
+    <t>A0956808</t>
+  </si>
+  <si>
+    <t>A0956809</t>
+  </si>
+  <si>
+    <t>A0956810</t>
+  </si>
+  <si>
+    <t>A0956811</t>
+  </si>
+  <si>
+    <t>A0956812</t>
+  </si>
+  <si>
+    <t>TestCartridge4257</t>
+  </si>
+  <si>
+    <t>A0957001</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-24257</t>
+  </si>
+  <si>
+    <t>A0957002</t>
+  </si>
+  <si>
+    <t>A0957003</t>
+  </si>
+  <si>
+    <t>A0957004</t>
+  </si>
+  <si>
+    <t>A0957005</t>
+  </si>
+  <si>
+    <t>A0957006</t>
+  </si>
+  <si>
+    <t>A0957007</t>
+  </si>
+  <si>
+    <t>A0957008</t>
+  </si>
+  <si>
+    <t>A0957009</t>
+  </si>
+  <si>
+    <t>A0957010</t>
+  </si>
+  <si>
+    <t>A0957011</t>
+  </si>
+  <si>
+    <t>A0957012</t>
+  </si>
+  <si>
+    <t>TestCartridge5646</t>
+  </si>
+  <si>
+    <t>A0957301</t>
+  </si>
+  <si>
+    <t>20210916-TestAut-PA-25646</t>
+  </si>
+  <si>
+    <t>A0957302</t>
+  </si>
+  <si>
+    <t>A0957303</t>
+  </si>
+  <si>
+    <t>A0957304</t>
+  </si>
+  <si>
+    <t>A0957305</t>
+  </si>
+  <si>
+    <t>A0957306</t>
+  </si>
+  <si>
+    <t>A0957307</t>
+  </si>
+  <si>
+    <t>A0957308</t>
+  </si>
+  <si>
+    <t>A0957309</t>
+  </si>
+  <si>
+    <t>A0957310</t>
+  </si>
+  <si>
+    <t>A0957311</t>
+  </si>
+  <si>
+    <t>A0957312</t>
+  </si>
+  <si>
+    <t>09/17/2021</t>
+  </si>
+  <si>
+    <t>A0962901</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-52946</t>
+  </si>
+  <si>
+    <t>A0962902</t>
+  </si>
+  <si>
+    <t>A0962903</t>
+  </si>
+  <si>
+    <t>A0962904</t>
+  </si>
+  <si>
+    <t>A0962905</t>
+  </si>
+  <si>
+    <t>A0962906</t>
+  </si>
+  <si>
+    <t>A0962907</t>
+  </si>
+  <si>
+    <t>A0962908</t>
+  </si>
+  <si>
+    <t>A0962909</t>
+  </si>
+  <si>
+    <t>A0962910</t>
+  </si>
+  <si>
+    <t>A0962911</t>
+  </si>
+  <si>
+    <t>A0962912</t>
+  </si>
+  <si>
+    <t>A0963501</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-62946</t>
+  </si>
+  <si>
+    <t>A0963502</t>
+  </si>
+  <si>
+    <t>A0963503</t>
+  </si>
+  <si>
+    <t>A0963504</t>
+  </si>
+  <si>
+    <t>A0963505</t>
+  </si>
+  <si>
+    <t>A0963506</t>
+  </si>
+  <si>
+    <t>A0963507</t>
+  </si>
+  <si>
+    <t>A0963508</t>
+  </si>
+  <si>
+    <t>A0963509</t>
+  </si>
+  <si>
+    <t>A0963510</t>
+  </si>
+  <si>
+    <t>A0963511</t>
+  </si>
+  <si>
+    <t>A0963512</t>
+  </si>
+  <si>
+    <t>TestCartridge0208</t>
+  </si>
+  <si>
+    <t>A0966712</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-20208</t>
+  </si>
+  <si>
+    <t>A0966705</t>
+  </si>
+  <si>
+    <t>A0966706</t>
+  </si>
+  <si>
+    <t>A0966707</t>
+  </si>
+  <si>
+    <t>A0966708</t>
+  </si>
+  <si>
+    <t>A0966709</t>
+  </si>
+  <si>
+    <t>A0966710</t>
+  </si>
+  <si>
+    <t>A0966711</t>
+  </si>
+  <si>
+    <t>A0966701</t>
+  </si>
+  <si>
+    <t>A0966702</t>
+  </si>
+  <si>
+    <t>A0966703</t>
+  </si>
+  <si>
+    <t>A0966704</t>
+  </si>
+  <si>
+    <t>A0967601</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-30208</t>
+  </si>
+  <si>
+    <t>A0967602</t>
+  </si>
+  <si>
+    <t>A0967603</t>
+  </si>
+  <si>
+    <t>A0967604</t>
+  </si>
+  <si>
+    <t>A0967605</t>
+  </si>
+  <si>
+    <t>A0967606</t>
+  </si>
+  <si>
+    <t>A0967607</t>
+  </si>
+  <si>
+    <t>A0967608</t>
+  </si>
+  <si>
+    <t>A0967609</t>
+  </si>
+  <si>
+    <t>A0967610</t>
+  </si>
+  <si>
+    <t>A0967611</t>
+  </si>
+  <si>
+    <t>A0967612</t>
+  </si>
+  <si>
+    <t>A0968401</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-50208</t>
+  </si>
+  <si>
+    <t>A0968402</t>
+  </si>
+  <si>
+    <t>A0968403</t>
+  </si>
+  <si>
+    <t>A0968404</t>
+  </si>
+  <si>
+    <t>A0968405</t>
+  </si>
+  <si>
+    <t>A0968406</t>
+  </si>
+  <si>
+    <t>A0968407</t>
+  </si>
+  <si>
+    <t>A0968408</t>
+  </si>
+  <si>
+    <t>A0968409</t>
+  </si>
+  <si>
+    <t>A0968410</t>
+  </si>
+  <si>
+    <t>A0968411</t>
+  </si>
+  <si>
+    <t>A0968412</t>
+  </si>
+  <si>
+    <t>A0968801</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-60208</t>
+  </si>
+  <si>
+    <t>A0968802</t>
+  </si>
+  <si>
+    <t>A0968803</t>
+  </si>
+  <si>
+    <t>A0968804</t>
+  </si>
+  <si>
+    <t>A0968805</t>
+  </si>
+  <si>
+    <t>A0968806</t>
+  </si>
+  <si>
+    <t>A0968807</t>
+  </si>
+  <si>
+    <t>A0968808</t>
+  </si>
+  <si>
+    <t>A0968809</t>
+  </si>
+  <si>
+    <t>A0968810</t>
+  </si>
+  <si>
+    <t>A0968811</t>
+  </si>
+  <si>
+    <t>A0968812</t>
+  </si>
+  <si>
+    <t>TestCartridge2640</t>
+  </si>
+  <si>
+    <t>A0970209</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-22640</t>
+  </si>
+  <si>
+    <t>A0970210</t>
+  </si>
+  <si>
+    <t>A0970211</t>
+  </si>
+  <si>
+    <t>A0970212</t>
+  </si>
+  <si>
+    <t>A0970205</t>
+  </si>
+  <si>
+    <t>A0970206</t>
+  </si>
+  <si>
+    <t>A0970207</t>
+  </si>
+  <si>
+    <t>A0970208</t>
+  </si>
+  <si>
+    <t>A0970201</t>
+  </si>
+  <si>
+    <t>A0970202</t>
+  </si>
+  <si>
+    <t>A0970203</t>
+  </si>
+  <si>
+    <t>A0970204</t>
+  </si>
+  <si>
+    <t>A0970301</t>
+  </si>
+  <si>
+    <t>20210917-TestAut-PA-52640</t>
+  </si>
+  <si>
+    <t>A0970302</t>
+  </si>
+  <si>
+    <t>A0970303</t>
+  </si>
+  <si>
+    <t>A0970304</t>
+  </si>
+  <si>
+    <t>A0970305</t>
+  </si>
+  <si>
+    <t>A0970306</t>
+  </si>
+  <si>
+    <t>A0970307</t>
+  </si>
+  <si>
+    <t>A0970308</t>
+  </si>
+  <si>
+    <t>A0970309</t>
+  </si>
+  <si>
+    <t>A0970310</t>
+  </si>
+  <si>
+    <t>A0970311</t>
+  </si>
+  <si>
+    <t>A0970312</t>
+  </si>
+  <si>
+    <t>09/20/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge0323</t>
+  </si>
+  <si>
+    <t>A0973601</t>
+  </si>
+  <si>
+    <t>20210920-TestAut-PA-30323</t>
+  </si>
+  <si>
+    <t>A0973610</t>
+  </si>
+  <si>
+    <t>A0973611</t>
+  </si>
+  <si>
+    <t>A0973612</t>
+  </si>
+  <si>
+    <t>A0973602</t>
+  </si>
+  <si>
+    <t>A0973603</t>
+  </si>
+  <si>
+    <t>A0973608</t>
+  </si>
+  <si>
+    <t>A0973609</t>
+  </si>
+  <si>
+    <t>A0973606</t>
+  </si>
+  <si>
+    <t>A0973607</t>
+  </si>
+  <si>
+    <t>A0973604</t>
+  </si>
+  <si>
+    <t>A0973605</t>
+  </si>
+  <si>
+    <t>TestCartridge2653</t>
+  </si>
+  <si>
+    <t>A0973801</t>
+  </si>
+  <si>
+    <t>20210920-TestAut-PA-32653</t>
+  </si>
+  <si>
+    <t>A0973810</t>
+  </si>
+  <si>
+    <t>A0973811</t>
+  </si>
+  <si>
+    <t>A0973812</t>
+  </si>
+  <si>
+    <t>A0973802</t>
+  </si>
+  <si>
+    <t>A0973803</t>
+  </si>
+  <si>
+    <t>A0973804</t>
+  </si>
+  <si>
+    <t>A0973805</t>
+  </si>
+  <si>
+    <t>A0973806</t>
+  </si>
+  <si>
+    <t>A0973807</t>
+  </si>
+  <si>
+    <t>A0973808</t>
+  </si>
+  <si>
+    <t>A0973809</t>
+  </si>
+  <si>
+    <t>TestCartridge4218</t>
+  </si>
+  <si>
+    <t>A0974201</t>
+  </si>
+  <si>
+    <t>20210920-TestAut-PA-34218</t>
+  </si>
+  <si>
+    <t>A0974210</t>
+  </si>
+  <si>
+    <t>A0974211</t>
+  </si>
+  <si>
+    <t>A0974212</t>
+  </si>
+  <si>
+    <t>A0974202</t>
+  </si>
+  <si>
+    <t>A0974203</t>
+  </si>
+  <si>
+    <t>A0974204</t>
+  </si>
+  <si>
+    <t>A0974205</t>
+  </si>
+  <si>
+    <t>A0974206</t>
+  </si>
+  <si>
+    <t>A0974207</t>
+  </si>
+  <si>
+    <t>A0974208</t>
+  </si>
+  <si>
+    <t>A0974209</t>
+  </si>
+  <si>
+    <t>09/21/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge4826</t>
+  </si>
+  <si>
+    <t>A0980407</t>
+  </si>
+  <si>
+    <t>20210921-TestAut-PA-24826</t>
+  </si>
+  <si>
+    <t>A0980408</t>
+  </si>
+  <si>
+    <t>A0980409</t>
+  </si>
+  <si>
+    <t>A0980401</t>
+  </si>
+  <si>
+    <t>A0980410</t>
+  </si>
+  <si>
+    <t>A0980411</t>
+  </si>
+  <si>
+    <t>A0980412</t>
+  </si>
+  <si>
+    <t>A0980402</t>
+  </si>
+  <si>
+    <t>A0980403</t>
+  </si>
+  <si>
+    <t>A0980404</t>
+  </si>
+  <si>
+    <t>A0980405</t>
+  </si>
+  <si>
+    <t>A0980406</t>
+  </si>
+  <si>
+    <t>A0980509</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_4826</t>
+  </si>
+  <si>
+    <t>20210921-TestAut-PA-34826</t>
+  </si>
+  <si>
+    <t>A0980507</t>
+  </si>
+  <si>
+    <t>A0980508</t>
+  </si>
+  <si>
+    <t>A0980501</t>
+  </si>
+  <si>
+    <t>A0980510</t>
+  </si>
+  <si>
+    <t>A0980511</t>
+  </si>
+  <si>
+    <t>A0980512</t>
+  </si>
+  <si>
+    <t>A0980502</t>
+  </si>
+  <si>
+    <t>A0980503</t>
+  </si>
+  <si>
+    <t>A0980504</t>
+  </si>
+  <si>
+    <t>A0980505</t>
+  </si>
+  <si>
+    <t>A0980506</t>
+  </si>
+  <si>
+    <t>TestCartridge4347</t>
+  </si>
+  <si>
+    <t>A0980701</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_4347</t>
+  </si>
+  <si>
+    <t>20210921-TestAut-PA-34347</t>
+  </si>
+  <si>
+    <t>A0980710</t>
+  </si>
+  <si>
+    <t>A0980711</t>
+  </si>
+  <si>
+    <t>A0980712</t>
+  </si>
+  <si>
+    <t>A0980702</t>
+  </si>
+  <si>
+    <t>A0980703</t>
+  </si>
+  <si>
+    <t>A0980704</t>
+  </si>
+  <si>
+    <t>A0980705</t>
+  </si>
+  <si>
+    <t>A0980706</t>
+  </si>
+  <si>
+    <t>A0980707</t>
+  </si>
+  <si>
+    <t>A0980708</t>
+  </si>
+  <si>
+    <t>A0980709</t>
   </si>
 </sst>
 </file>
@@ -1210,22 +2542,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>670</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -1245,7 +2577,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -1263,22 +2595,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>673</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -1298,7 +2630,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -1316,22 +2648,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>674</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -1351,7 +2683,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -1369,22 +2701,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>675</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -1404,7 +2736,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -1422,22 +2754,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>676</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -1457,7 +2789,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -1475,22 +2807,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>677</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -1510,7 +2842,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -1528,22 +2860,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>678</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -1563,7 +2895,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -1581,22 +2913,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>679</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -1616,7 +2948,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -1634,22 +2966,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>680</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1669,7 +3001,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -1687,22 +3019,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>681</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1722,7 +3054,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -1740,22 +3072,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>682</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1775,7 +3107,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -1793,22 +3125,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>669</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>683</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1828,7 +3160,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>228</v>
+        <v>672</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="798">
   <si>
     <t>Result Date</t>
   </si>
@@ -2086,6 +2086,348 @@
   </si>
   <si>
     <t>A0980709</t>
+  </si>
+  <si>
+    <t>09/22/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge4126</t>
+  </si>
+  <si>
+    <t>A0989501</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-24126</t>
+  </si>
+  <si>
+    <t>A0989502</t>
+  </si>
+  <si>
+    <t>A0989503</t>
+  </si>
+  <si>
+    <t>A0989504</t>
+  </si>
+  <si>
+    <t>A0989505</t>
+  </si>
+  <si>
+    <t>A0989506</t>
+  </si>
+  <si>
+    <t>A0989507</t>
+  </si>
+  <si>
+    <t>A0989508</t>
+  </si>
+  <si>
+    <t>A0989509</t>
+  </si>
+  <si>
+    <t>A0989510</t>
+  </si>
+  <si>
+    <t>A0989511</t>
+  </si>
+  <si>
+    <t>A0989512</t>
+  </si>
+  <si>
+    <t>A0989809</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_4126</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-34126</t>
+  </si>
+  <si>
+    <t>A0989810</t>
+  </si>
+  <si>
+    <t>A0989811</t>
+  </si>
+  <si>
+    <t>A0989812</t>
+  </si>
+  <si>
+    <t>A0989801</t>
+  </si>
+  <si>
+    <t>A0989802</t>
+  </si>
+  <si>
+    <t>A0989803</t>
+  </si>
+  <si>
+    <t>A0989804</t>
+  </si>
+  <si>
+    <t>A0989805</t>
+  </si>
+  <si>
+    <t>A0989806</t>
+  </si>
+  <si>
+    <t>A0989807</t>
+  </si>
+  <si>
+    <t>A0989808</t>
+  </si>
+  <si>
+    <t>TestCartridge0232</t>
+  </si>
+  <si>
+    <t>A0990401</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-20232</t>
+  </si>
+  <si>
+    <t>A0990402</t>
+  </si>
+  <si>
+    <t>A0990403</t>
+  </si>
+  <si>
+    <t>A0990404</t>
+  </si>
+  <si>
+    <t>A0990405</t>
+  </si>
+  <si>
+    <t>A0990406</t>
+  </si>
+  <si>
+    <t>A0990407</t>
+  </si>
+  <si>
+    <t>A0990408</t>
+  </si>
+  <si>
+    <t>A0990409</t>
+  </si>
+  <si>
+    <t>A0990410</t>
+  </si>
+  <si>
+    <t>A0990411</t>
+  </si>
+  <si>
+    <t>A0990412</t>
+  </si>
+  <si>
+    <t>A0990701</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_0232</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-30232</t>
+  </si>
+  <si>
+    <t>A0990702</t>
+  </si>
+  <si>
+    <t>A0990703</t>
+  </si>
+  <si>
+    <t>A0990704</t>
+  </si>
+  <si>
+    <t>A0990705</t>
+  </si>
+  <si>
+    <t>A0990706</t>
+  </si>
+  <si>
+    <t>A0990707</t>
+  </si>
+  <si>
+    <t>A0990708</t>
+  </si>
+  <si>
+    <t>A0990709</t>
+  </si>
+  <si>
+    <t>A0990710</t>
+  </si>
+  <si>
+    <t>A0990711</t>
+  </si>
+  <si>
+    <t>A0990712</t>
+  </si>
+  <si>
+    <t>A0991201</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-50232</t>
+  </si>
+  <si>
+    <t>A0991202</t>
+  </si>
+  <si>
+    <t>A0991203</t>
+  </si>
+  <si>
+    <t>A0991204</t>
+  </si>
+  <si>
+    <t>A0991205</t>
+  </si>
+  <si>
+    <t>A0991206</t>
+  </si>
+  <si>
+    <t>A0991207</t>
+  </si>
+  <si>
+    <t>A0991208</t>
+  </si>
+  <si>
+    <t>A0991209</t>
+  </si>
+  <si>
+    <t>A0991210</t>
+  </si>
+  <si>
+    <t>A0991211</t>
+  </si>
+  <si>
+    <t>A0991212</t>
+  </si>
+  <si>
+    <t>A0991401</t>
+  </si>
+  <si>
+    <t>SMatrix_List_0232</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-60232</t>
+  </si>
+  <si>
+    <t>A0991402</t>
+  </si>
+  <si>
+    <t>A0991403</t>
+  </si>
+  <si>
+    <t>A0991404</t>
+  </si>
+  <si>
+    <t>A0991405</t>
+  </si>
+  <si>
+    <t>A0991406</t>
+  </si>
+  <si>
+    <t>A0991407</t>
+  </si>
+  <si>
+    <t>A0991408</t>
+  </si>
+  <si>
+    <t>A0991409</t>
+  </si>
+  <si>
+    <t>A0991410</t>
+  </si>
+  <si>
+    <t>A0991411</t>
+  </si>
+  <si>
+    <t>A0991412</t>
+  </si>
+  <si>
+    <t>TestCartridge2938</t>
+  </si>
+  <si>
+    <t>A0991701</t>
+  </si>
+  <si>
+    <t>SMatrix_List_2938</t>
+  </si>
+  <si>
+    <t>20210922-TestAut-PA-72938</t>
+  </si>
+  <si>
+    <t>A0991702</t>
+  </si>
+  <si>
+    <t>A0991703</t>
+  </si>
+  <si>
+    <t>A0991704</t>
+  </si>
+  <si>
+    <t>A0991705</t>
+  </si>
+  <si>
+    <t>A0991706</t>
+  </si>
+  <si>
+    <t>A0991707</t>
+  </si>
+  <si>
+    <t>A0991708</t>
+  </si>
+  <si>
+    <t>A0991709</t>
+  </si>
+  <si>
+    <t>A0991710</t>
+  </si>
+  <si>
+    <t>A0991711</t>
+  </si>
+  <si>
+    <t>A0991712</t>
+  </si>
+  <si>
+    <t>09/23/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge2707</t>
+  </si>
+  <si>
+    <t>A1001301</t>
+  </si>
+  <si>
+    <t>20210923-TestAut-PA-22707</t>
+  </si>
+  <si>
+    <t>A1001302</t>
+  </si>
+  <si>
+    <t>A1001303</t>
+  </si>
+  <si>
+    <t>A1001304</t>
+  </si>
+  <si>
+    <t>A1001305</t>
+  </si>
+  <si>
+    <t>A1001306</t>
+  </si>
+  <si>
+    <t>A1001307</t>
+  </si>
+  <si>
+    <t>A1001308</t>
+  </si>
+  <si>
+    <t>A1001309</t>
+  </si>
+  <si>
+    <t>A1001310</t>
+  </si>
+  <si>
+    <t>A1001311</t>
+  </si>
+  <si>
+    <t>A1001312</t>
   </si>
 </sst>
 </file>
@@ -2542,22 +2884,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D2" t="s">
-        <v>670</v>
+        <v>785</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -2577,7 +2919,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -2595,22 +2937,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D3" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2630,7 +2972,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -2648,22 +2990,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>788</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2683,7 +3025,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -2701,22 +3043,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D5" t="s">
-        <v>675</v>
+        <v>789</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2736,7 +3078,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -2754,22 +3096,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D6" t="s">
-        <v>676</v>
+        <v>790</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2789,7 +3131,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -2807,22 +3149,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D7" t="s">
-        <v>677</v>
+        <v>791</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2842,7 +3184,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -2860,22 +3202,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2895,7 +3237,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -2913,22 +3255,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D9" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2948,7 +3290,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -2966,22 +3308,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D10" t="s">
-        <v>680</v>
+        <v>794</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -3001,7 +3343,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -3019,22 +3361,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D11" t="s">
-        <v>681</v>
+        <v>795</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -3054,7 +3396,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -3072,22 +3414,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D12" t="s">
-        <v>682</v>
+        <v>796</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -3107,7 +3449,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -3125,22 +3467,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>783</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
-        <v>683</v>
+        <v>797</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -3160,7 +3502,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="871">
   <si>
     <t>Result Date</t>
   </si>
@@ -2428,6 +2428,225 @@
   </si>
   <si>
     <t>A1001312</t>
+  </si>
+  <si>
+    <t>09/24/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge3152</t>
+  </si>
+  <si>
+    <t>A1003801</t>
+  </si>
+  <si>
+    <t>20210924-TestAut-PA-63152</t>
+  </si>
+  <si>
+    <t>A1003802</t>
+  </si>
+  <si>
+    <t>A1003803</t>
+  </si>
+  <si>
+    <t>A1003804</t>
+  </si>
+  <si>
+    <t>A1003805</t>
+  </si>
+  <si>
+    <t>A1003806</t>
+  </si>
+  <si>
+    <t>A1003807</t>
+  </si>
+  <si>
+    <t>A1003808</t>
+  </si>
+  <si>
+    <t>A1003809</t>
+  </si>
+  <si>
+    <t>A1003810</t>
+  </si>
+  <si>
+    <t>A1003811</t>
+  </si>
+  <si>
+    <t>A1003812</t>
+  </si>
+  <si>
+    <t>TestCartridge0724</t>
+  </si>
+  <si>
+    <t>A1004812</t>
+  </si>
+  <si>
+    <t>20210924-TestAut-PA-20724</t>
+  </si>
+  <si>
+    <t>A1004808</t>
+  </si>
+  <si>
+    <t>A1004809</t>
+  </si>
+  <si>
+    <t>A1004810</t>
+  </si>
+  <si>
+    <t>A1004811</t>
+  </si>
+  <si>
+    <t>A1004804</t>
+  </si>
+  <si>
+    <t>A1004805</t>
+  </si>
+  <si>
+    <t>A1004806</t>
+  </si>
+  <si>
+    <t>A1004807</t>
+  </si>
+  <si>
+    <t>A1004801</t>
+  </si>
+  <si>
+    <t>A1004802</t>
+  </si>
+  <si>
+    <t>A1004803</t>
+  </si>
+  <si>
+    <t>TestCartridge2357</t>
+  </si>
+  <si>
+    <t>A1005001</t>
+  </si>
+  <si>
+    <t>20210924-TestAut-PA-62357</t>
+  </si>
+  <si>
+    <t>A1005002</t>
+  </si>
+  <si>
+    <t>A1005003</t>
+  </si>
+  <si>
+    <t>A1005004</t>
+  </si>
+  <si>
+    <t>A1005005</t>
+  </si>
+  <si>
+    <t>A1005006</t>
+  </si>
+  <si>
+    <t>A1005007</t>
+  </si>
+  <si>
+    <t>A1005008</t>
+  </si>
+  <si>
+    <t>A1005009</t>
+  </si>
+  <si>
+    <t>A1005010</t>
+  </si>
+  <si>
+    <t>A1005011</t>
+  </si>
+  <si>
+    <t>A1005012</t>
+  </si>
+  <si>
+    <t>TestCartridge5311</t>
+  </si>
+  <si>
+    <t>A1005401</t>
+  </si>
+  <si>
+    <t>SMatrix_List_5311</t>
+  </si>
+  <si>
+    <t>20210924-TestAut-PA-75311</t>
+  </si>
+  <si>
+    <t>A1005402</t>
+  </si>
+  <si>
+    <t>A1005403</t>
+  </si>
+  <si>
+    <t>A1005404</t>
+  </si>
+  <si>
+    <t>A1005405</t>
+  </si>
+  <si>
+    <t>A1005406</t>
+  </si>
+  <si>
+    <t>A1005407</t>
+  </si>
+  <si>
+    <t>A1005408</t>
+  </si>
+  <si>
+    <t>A1005409</t>
+  </si>
+  <si>
+    <t>A1005410</t>
+  </si>
+  <si>
+    <t>A1005411</t>
+  </si>
+  <si>
+    <t>A1005412</t>
+  </si>
+  <si>
+    <t>TestCartridge0335</t>
+  </si>
+  <si>
+    <t>A1005501</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_0335</t>
+  </si>
+  <si>
+    <t>20210924-TestAut-PA-30335</t>
+  </si>
+  <si>
+    <t>A1005502</t>
+  </si>
+  <si>
+    <t>A1005503</t>
+  </si>
+  <si>
+    <t>A1005504</t>
+  </si>
+  <si>
+    <t>A1005505</t>
+  </si>
+  <si>
+    <t>A1005506</t>
+  </si>
+  <si>
+    <t>A1005507</t>
+  </si>
+  <si>
+    <t>A1005508</t>
+  </si>
+  <si>
+    <t>A1005509</t>
+  </si>
+  <si>
+    <t>A1005510</t>
+  </si>
+  <si>
+    <t>A1005511</t>
+  </si>
+  <si>
+    <t>A1005512</t>
   </si>
 </sst>
 </file>
@@ -2884,22 +3103,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D2" t="s">
-        <v>785</v>
+        <v>857</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -2919,7 +3138,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -2937,22 +3156,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D3" t="s">
-        <v>787</v>
+        <v>860</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2972,7 +3191,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -2990,22 +3209,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D4" t="s">
-        <v>788</v>
+        <v>861</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -3025,7 +3244,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -3043,22 +3262,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D5" t="s">
-        <v>789</v>
+        <v>862</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -3078,7 +3297,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -3096,22 +3315,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D6" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -3131,7 +3350,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -3149,22 +3368,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D7" t="s">
-        <v>791</v>
+        <v>864</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -3184,7 +3403,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -3202,22 +3421,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>865</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -3237,7 +3456,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -3255,22 +3474,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D9" t="s">
-        <v>793</v>
+        <v>866</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -3290,7 +3509,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -3308,22 +3527,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D10" t="s">
-        <v>794</v>
+        <v>867</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -3343,7 +3562,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -3361,22 +3580,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D11" t="s">
-        <v>795</v>
+        <v>868</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -3396,7 +3615,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -3414,22 +3633,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D12" t="s">
-        <v>796</v>
+        <v>869</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -3449,7 +3668,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -3467,22 +3686,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="D13" t="s">
-        <v>797</v>
+        <v>870</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>858</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -3502,7 +3721,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>786</v>
+        <v>859</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="957">
   <si>
     <t>Result Date</t>
   </si>
@@ -2647,6 +2647,264 @@
   </si>
   <si>
     <t>A1005512</t>
+  </si>
+  <si>
+    <t>10/07/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge1621</t>
+  </si>
+  <si>
+    <t>A1022703</t>
+  </si>
+  <si>
+    <t>20211007-TestAut-PA-21621</t>
+  </si>
+  <si>
+    <t>A1022704</t>
+  </si>
+  <si>
+    <t>A1022705</t>
+  </si>
+  <si>
+    <t>A1022706</t>
+  </si>
+  <si>
+    <t>A1022707</t>
+  </si>
+  <si>
+    <t>A1022708</t>
+  </si>
+  <si>
+    <t>A1022709</t>
+  </si>
+  <si>
+    <t>A1022710</t>
+  </si>
+  <si>
+    <t>A1022711</t>
+  </si>
+  <si>
+    <t>A1022712</t>
+  </si>
+  <si>
+    <t>A1022701</t>
+  </si>
+  <si>
+    <t>A1022702</t>
+  </si>
+  <si>
+    <t>A1022906</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_1621</t>
+  </si>
+  <si>
+    <t>20211007-TestAut-PA-31621</t>
+  </si>
+  <si>
+    <t>A1022907</t>
+  </si>
+  <si>
+    <t>A1022908</t>
+  </si>
+  <si>
+    <t>A1022909</t>
+  </si>
+  <si>
+    <t>A1022910</t>
+  </si>
+  <si>
+    <t>A1022911</t>
+  </si>
+  <si>
+    <t>A1022912</t>
+  </si>
+  <si>
+    <t>A1022901</t>
+  </si>
+  <si>
+    <t>A1022902</t>
+  </si>
+  <si>
+    <t>A1022903</t>
+  </si>
+  <si>
+    <t>A1022904</t>
+  </si>
+  <si>
+    <t>A1022905</t>
+  </si>
+  <si>
+    <t>TestCartridge3443</t>
+  </si>
+  <si>
+    <t>A1024601</t>
+  </si>
+  <si>
+    <t>20211007-TestAut-PA-23443</t>
+  </si>
+  <si>
+    <t>A1024602</t>
+  </si>
+  <si>
+    <t>A1024603</t>
+  </si>
+  <si>
+    <t>A1024604</t>
+  </si>
+  <si>
+    <t>A1024605</t>
+  </si>
+  <si>
+    <t>A1024606</t>
+  </si>
+  <si>
+    <t>A1024607</t>
+  </si>
+  <si>
+    <t>A1024608</t>
+  </si>
+  <si>
+    <t>A1024609</t>
+  </si>
+  <si>
+    <t>A1024610</t>
+  </si>
+  <si>
+    <t>A1024611</t>
+  </si>
+  <si>
+    <t>A1024612</t>
+  </si>
+  <si>
+    <t>A1025001</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_3443</t>
+  </si>
+  <si>
+    <t>20211007-TestAut-PA-33443</t>
+  </si>
+  <si>
+    <t>A1025002</t>
+  </si>
+  <si>
+    <t>A1025003</t>
+  </si>
+  <si>
+    <t>A1025004</t>
+  </si>
+  <si>
+    <t>A1025005</t>
+  </si>
+  <si>
+    <t>A1025006</t>
+  </si>
+  <si>
+    <t>A1025007</t>
+  </si>
+  <si>
+    <t>A1025008</t>
+  </si>
+  <si>
+    <t>A1025009</t>
+  </si>
+  <si>
+    <t>A1025010</t>
+  </si>
+  <si>
+    <t>A1025011</t>
+  </si>
+  <si>
+    <t>A1025012</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge5428</t>
+  </si>
+  <si>
+    <t>A1037511</t>
+  </si>
+  <si>
+    <t>20211008-TestAut-PA-25428</t>
+  </si>
+  <si>
+    <t>A1037512</t>
+  </si>
+  <si>
+    <t>A1037501</t>
+  </si>
+  <si>
+    <t>A1037502</t>
+  </si>
+  <si>
+    <t>A1037503</t>
+  </si>
+  <si>
+    <t>A1037504</t>
+  </si>
+  <si>
+    <t>A1037505</t>
+  </si>
+  <si>
+    <t>A1037506</t>
+  </si>
+  <si>
+    <t>A1037507</t>
+  </si>
+  <si>
+    <t>A1037508</t>
+  </si>
+  <si>
+    <t>A1037509</t>
+  </si>
+  <si>
+    <t>A1037510</t>
+  </si>
+  <si>
+    <t>A1037701</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_5428</t>
+  </si>
+  <si>
+    <t>20211008-TestAut-PA-35428</t>
+  </si>
+  <si>
+    <t>A1037702</t>
+  </si>
+  <si>
+    <t>A1037703</t>
+  </si>
+  <si>
+    <t>A1037704</t>
+  </si>
+  <si>
+    <t>A1037705</t>
+  </si>
+  <si>
+    <t>A1037706</t>
+  </si>
+  <si>
+    <t>A1037707</t>
+  </si>
+  <si>
+    <t>A1037708</t>
+  </si>
+  <si>
+    <t>A1037709</t>
+  </si>
+  <si>
+    <t>A1037710</t>
+  </si>
+  <si>
+    <t>A1037711</t>
+  </si>
+  <si>
+    <t>A1037712</t>
   </si>
 </sst>
 </file>
@@ -3103,22 +3361,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D2" t="s">
-        <v>857</v>
+        <v>943</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -3138,7 +3396,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -3156,22 +3414,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D3" t="s">
-        <v>860</v>
+        <v>946</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -3191,7 +3449,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -3209,22 +3467,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D4" t="s">
-        <v>861</v>
+        <v>947</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -3244,7 +3502,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -3262,22 +3520,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D5" t="s">
-        <v>862</v>
+        <v>948</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -3297,7 +3555,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -3315,22 +3573,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D6" t="s">
-        <v>863</v>
+        <v>949</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -3350,7 +3608,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -3368,22 +3626,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D7" t="s">
-        <v>864</v>
+        <v>950</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -3403,7 +3661,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -3421,22 +3679,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D8" t="s">
-        <v>865</v>
+        <v>951</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -3456,7 +3714,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -3474,22 +3732,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D9" t="s">
-        <v>866</v>
+        <v>952</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -3509,7 +3767,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -3527,22 +3785,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D10" t="s">
-        <v>867</v>
+        <v>953</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -3562,7 +3820,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -3580,22 +3838,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D11" t="s">
-        <v>868</v>
+        <v>954</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -3615,7 +3873,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -3633,22 +3891,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D12" t="s">
-        <v>869</v>
+        <v>955</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -3668,7 +3926,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -3686,22 +3944,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="D13" t="s">
-        <v>870</v>
+        <v>956</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -3721,7 +3979,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5232" uniqueCount="1015">
   <si>
     <t>Result Date</t>
   </si>
@@ -2905,6 +2905,180 @@
   </si>
   <si>
     <t>A1037712</t>
+  </si>
+  <si>
+    <t>10/28/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge1625</t>
+  </si>
+  <si>
+    <t>A1113401</t>
+  </si>
+  <si>
+    <t>20211028-TestAut-PA-21625</t>
+  </si>
+  <si>
+    <t>A1113403</t>
+  </si>
+  <si>
+    <t>A1113402</t>
+  </si>
+  <si>
+    <t>A1113404</t>
+  </si>
+  <si>
+    <t>A1113405</t>
+  </si>
+  <si>
+    <t>A1113406</t>
+  </si>
+  <si>
+    <t>A1113407</t>
+  </si>
+  <si>
+    <t>A1113408</t>
+  </si>
+  <si>
+    <t>A1113409</t>
+  </si>
+  <si>
+    <t>A1113410</t>
+  </si>
+  <si>
+    <t>A1113411</t>
+  </si>
+  <si>
+    <t>A1113412</t>
+  </si>
+  <si>
+    <t>A1113501</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_1625</t>
+  </si>
+  <si>
+    <t>20211028-TestAut-PA-31625</t>
+  </si>
+  <si>
+    <t>A1113502</t>
+  </si>
+  <si>
+    <t>A1113503</t>
+  </si>
+  <si>
+    <t>A1113504</t>
+  </si>
+  <si>
+    <t>A1113505</t>
+  </si>
+  <si>
+    <t>A1113506</t>
+  </si>
+  <si>
+    <t>A1113507</t>
+  </si>
+  <si>
+    <t>A1113508</t>
+  </si>
+  <si>
+    <t>A1113509</t>
+  </si>
+  <si>
+    <t>A1113510</t>
+  </si>
+  <si>
+    <t>A1113511</t>
+  </si>
+  <si>
+    <t>A1113512</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge1858</t>
+  </si>
+  <si>
+    <t>A0002901</t>
+  </si>
+  <si>
+    <t>20211105-TestAut-PA-21858</t>
+  </si>
+  <si>
+    <t>A0002902</t>
+  </si>
+  <si>
+    <t>A0002903</t>
+  </si>
+  <si>
+    <t>A0002904</t>
+  </si>
+  <si>
+    <t>A0002905</t>
+  </si>
+  <si>
+    <t>A0002906</t>
+  </si>
+  <si>
+    <t>A0002907</t>
+  </si>
+  <si>
+    <t>A0002908</t>
+  </si>
+  <si>
+    <t>A0002909</t>
+  </si>
+  <si>
+    <t>A0002910</t>
+  </si>
+  <si>
+    <t>A0002911</t>
+  </si>
+  <si>
+    <t>A0002912</t>
+  </si>
+  <si>
+    <t>A0003001</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_1858</t>
+  </si>
+  <si>
+    <t>20211105-TestAut-PA-31858</t>
+  </si>
+  <si>
+    <t>A0003002</t>
+  </si>
+  <si>
+    <t>A0003003</t>
+  </si>
+  <si>
+    <t>A0003004</t>
+  </si>
+  <si>
+    <t>A0003005</t>
+  </si>
+  <si>
+    <t>A0003006</t>
+  </si>
+  <si>
+    <t>A0003007</t>
+  </si>
+  <si>
+    <t>A0003008</t>
+  </si>
+  <si>
+    <t>A0003009</t>
+  </si>
+  <si>
+    <t>A0003010</t>
+  </si>
+  <si>
+    <t>A0003011</t>
+  </si>
+  <si>
+    <t>A0003012</t>
   </si>
 </sst>
 </file>
@@ -3361,22 +3535,22 @@
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D2" t="s">
-        <v>943</v>
+        <v>1001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -3396,7 +3570,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
@@ -3414,22 +3588,22 @@
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D3" t="s">
-        <v>946</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -3449,7 +3623,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
@@ -3467,22 +3641,22 @@
     </row>
     <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D4" t="s">
-        <v>947</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -3502,7 +3676,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -3520,22 +3694,22 @@
     </row>
     <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D5" t="s">
-        <v>948</v>
+        <v>1006</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -3555,7 +3729,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
@@ -3573,22 +3747,22 @@
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D6" t="s">
-        <v>949</v>
+        <v>1007</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -3608,7 +3782,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
@@ -3626,22 +3800,22 @@
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D7" t="s">
-        <v>950</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -3661,7 +3835,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
@@ -3679,22 +3853,22 @@
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D8" t="s">
-        <v>951</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -3714,7 +3888,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -3732,22 +3906,22 @@
     </row>
     <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D9" t="s">
-        <v>952</v>
+        <v>1010</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -3767,7 +3941,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
@@ -3785,22 +3959,22 @@
     </row>
     <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D10" t="s">
-        <v>953</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -3820,7 +3994,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
@@ -3838,22 +4012,22 @@
     </row>
     <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D11" t="s">
-        <v>954</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -3873,7 +4047,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
@@ -3891,22 +4065,22 @@
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D12" t="s">
-        <v>955</v>
+        <v>1013</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -3926,7 +4100,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
@@ -3944,22 +4118,22 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="D13" t="s">
-        <v>956</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -3979,7 +4153,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="291">
   <si>
     <t>Result ID</t>
   </si>
@@ -806,6 +806,93 @@
   </si>
   <si>
     <t>A1327809</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge2643</t>
+  </si>
+  <si>
+    <t>A1341401</t>
+  </si>
+  <si>
+    <t>20220209-TestAut-PA-22643</t>
+  </si>
+  <si>
+    <t>A1341402</t>
+  </si>
+  <si>
+    <t>A1341403</t>
+  </si>
+  <si>
+    <t>A1341404</t>
+  </si>
+  <si>
+    <t>A1341405</t>
+  </si>
+  <si>
+    <t>A1341406</t>
+  </si>
+  <si>
+    <t>A1341407</t>
+  </si>
+  <si>
+    <t>A1341408</t>
+  </si>
+  <si>
+    <t>A1341409</t>
+  </si>
+  <si>
+    <t>A1341410</t>
+  </si>
+  <si>
+    <t>A1341411</t>
+  </si>
+  <si>
+    <t>A1341412</t>
+  </si>
+  <si>
+    <t>A1341501</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_2643</t>
+  </si>
+  <si>
+    <t>20220209-TestAut-PA-32643</t>
+  </si>
+  <si>
+    <t>A1341502</t>
+  </si>
+  <si>
+    <t>A1341503</t>
+  </si>
+  <si>
+    <t>A1341504</t>
+  </si>
+  <si>
+    <t>A1341505</t>
+  </si>
+  <si>
+    <t>A1341506</t>
+  </si>
+  <si>
+    <t>A1341507</t>
+  </si>
+  <si>
+    <t>A1341508</t>
+  </si>
+  <si>
+    <t>A1341509</t>
+  </si>
+  <si>
+    <t>A1341510</t>
+  </si>
+  <si>
+    <t>A1341511</t>
+  </si>
+  <si>
+    <t>A1341512</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1378,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1300,10 +1387,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1339,16 +1426,16 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1365,7 +1452,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1374,10 +1461,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1413,16 +1500,16 @@
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1439,7 +1526,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1448,10 +1535,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1487,16 +1574,16 @@
         <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1513,7 +1600,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1522,10 +1609,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1561,16 +1648,16 @@
         <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1587,7 +1674,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1596,10 +1683,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1635,16 +1722,16 @@
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1661,7 +1748,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1670,10 +1757,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1709,16 +1796,16 @@
         <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1735,7 +1822,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1744,10 +1831,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1783,16 +1870,16 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1809,7 +1896,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1818,10 +1905,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -1857,16 +1944,16 @@
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1883,7 +1970,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1892,10 +1979,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -1931,16 +2018,16 @@
         <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1957,7 +2044,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1966,10 +2053,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2005,16 +2092,16 @@
         <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2031,7 +2118,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2040,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2079,16 +2166,16 @@
         <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2105,7 +2192,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2114,10 +2201,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2153,16 +2240,16 @@
         <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="335">
   <si>
     <t>Result ID</t>
   </si>
@@ -893,6 +893,138 @@
   </si>
   <si>
     <t>A1341512</t>
+  </si>
+  <si>
+    <t>03/04/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge4624</t>
+  </si>
+  <si>
+    <t>A1392601</t>
+  </si>
+  <si>
+    <t>20220304-TestAut-PA-24624</t>
+  </si>
+  <si>
+    <t>A1392602</t>
+  </si>
+  <si>
+    <t>A1392603</t>
+  </si>
+  <si>
+    <t>A1392604</t>
+  </si>
+  <si>
+    <t>A1392605</t>
+  </si>
+  <si>
+    <t>A1392606</t>
+  </si>
+  <si>
+    <t>A1392607</t>
+  </si>
+  <si>
+    <t>A1392608</t>
+  </si>
+  <si>
+    <t>A1392609</t>
+  </si>
+  <si>
+    <t>A1392610</t>
+  </si>
+  <si>
+    <t>A1392611</t>
+  </si>
+  <si>
+    <t>A1392612</t>
+  </si>
+  <si>
+    <t>A1392801</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_4624</t>
+  </si>
+  <si>
+    <t>20220304-TestAut-PA-34624</t>
+  </si>
+  <si>
+    <t>A1392803</t>
+  </si>
+  <si>
+    <t>A1392804</t>
+  </si>
+  <si>
+    <t>A1392805</t>
+  </si>
+  <si>
+    <t>A1392806</t>
+  </si>
+  <si>
+    <t>A1392807</t>
+  </si>
+  <si>
+    <t>A1392812</t>
+  </si>
+  <si>
+    <t>A1392808</t>
+  </si>
+  <si>
+    <t>A1392809</t>
+  </si>
+  <si>
+    <t>A1392802</t>
+  </si>
+  <si>
+    <t>A1392810</t>
+  </si>
+  <si>
+    <t>A1392811</t>
+  </si>
+  <si>
+    <t>TestCartridge5523</t>
+  </si>
+  <si>
+    <t>A1393201</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_5523</t>
+  </si>
+  <si>
+    <t>20220304-TestAut-PA-35523</t>
+  </si>
+  <si>
+    <t>A1393202</t>
+  </si>
+  <si>
+    <t>A1393203</t>
+  </si>
+  <si>
+    <t>A1393204</t>
+  </si>
+  <si>
+    <t>A1393205</t>
+  </si>
+  <si>
+    <t>A1393209</t>
+  </si>
+  <si>
+    <t>A1393210</t>
+  </si>
+  <si>
+    <t>A1393211</t>
+  </si>
+  <si>
+    <t>A1393206</t>
+  </si>
+  <si>
+    <t>A1393207</t>
+  </si>
+  <si>
+    <t>A1393208</t>
+  </si>
+  <si>
+    <t>A1393212</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1510,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1387,10 +1519,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1429,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1452,7 +1584,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1461,10 +1593,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1503,13 +1635,13 @@
         <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1526,7 +1658,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1535,10 +1667,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1577,13 +1709,13 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1600,7 +1732,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1609,10 +1741,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1651,13 +1783,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1674,7 +1806,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1683,10 +1815,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1725,13 +1857,13 @@
         <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1748,7 +1880,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1757,10 +1889,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1796,16 +1928,16 @@
         <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1822,7 +1954,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1831,10 +1963,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1870,16 +2002,16 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1896,7 +2028,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1905,10 +2037,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -1944,16 +2076,16 @@
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1970,7 +2102,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1979,10 +2111,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2018,16 +2150,16 @@
         <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2044,7 +2176,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -2053,10 +2185,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2092,16 +2224,16 @@
         <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2118,7 +2250,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2127,10 +2259,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2166,16 +2298,16 @@
         <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2192,7 +2324,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2201,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2243,13 +2375,13 @@
         <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="364">
   <si>
     <t>Result ID</t>
   </si>
@@ -1025,6 +1025,93 @@
   </si>
   <si>
     <t>A1393212</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge0237</t>
+  </si>
+  <si>
+    <t>A1426101</t>
+  </si>
+  <si>
+    <t>20220512-TestAut-PA-20237</t>
+  </si>
+  <si>
+    <t>A1426102</t>
+  </si>
+  <si>
+    <t>A1426103</t>
+  </si>
+  <si>
+    <t>A1426104</t>
+  </si>
+  <si>
+    <t>A1426105</t>
+  </si>
+  <si>
+    <t>A1426106</t>
+  </si>
+  <si>
+    <t>A1426107</t>
+  </si>
+  <si>
+    <t>A1426108</t>
+  </si>
+  <si>
+    <t>A1426109</t>
+  </si>
+  <si>
+    <t>A1426110</t>
+  </si>
+  <si>
+    <t>A1426111</t>
+  </si>
+  <si>
+    <t>A1426112</t>
+  </si>
+  <si>
+    <t>A1426201</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_0237</t>
+  </si>
+  <si>
+    <t>20220512-TestAut-PA-30237</t>
+  </si>
+  <si>
+    <t>A1426202</t>
+  </si>
+  <si>
+    <t>A1426203</t>
+  </si>
+  <si>
+    <t>A1426204</t>
+  </si>
+  <si>
+    <t>A1426205</t>
+  </si>
+  <si>
+    <t>A1426206</t>
+  </si>
+  <si>
+    <t>A1426207</t>
+  </si>
+  <si>
+    <t>A1426208</t>
+  </si>
+  <si>
+    <t>A1426209</t>
+  </si>
+  <si>
+    <t>A1426210</t>
+  </si>
+  <si>
+    <t>A1426211</t>
+  </si>
+  <si>
+    <t>A1426212</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1597,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1519,10 +1606,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1561,13 +1648,13 @@
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1584,7 +1671,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1593,10 +1680,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1635,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1658,7 +1745,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1667,10 +1754,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1709,13 +1796,13 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1732,7 +1819,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1741,10 +1828,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1783,13 +1870,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1806,7 +1893,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1815,10 +1902,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1857,13 +1944,13 @@
         <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1880,7 +1967,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1889,10 +1976,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1928,16 +2015,16 @@
         <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1954,7 +2041,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1963,10 +2050,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -2002,16 +2089,16 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -2028,7 +2115,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2037,10 +2124,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2076,16 +2163,16 @@
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -2102,7 +2189,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2111,10 +2198,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2150,16 +2237,16 @@
         <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2176,7 +2263,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -2185,10 +2272,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2224,16 +2311,16 @@
         <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2250,7 +2337,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2259,10 +2346,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2298,16 +2385,16 @@
         <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2324,7 +2411,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2333,10 +2420,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2375,13 +2462,13 @@
         <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="393">
   <si>
     <t>Result ID</t>
   </si>
@@ -1112,6 +1112,93 @@
   </si>
   <si>
     <t>A1426212</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge5938</t>
+  </si>
+  <si>
+    <t>A1434701</t>
+  </si>
+  <si>
+    <t>20220603-TestAut-PA-25938</t>
+  </si>
+  <si>
+    <t>A1434702</t>
+  </si>
+  <si>
+    <t>A1434703</t>
+  </si>
+  <si>
+    <t>A1434704</t>
+  </si>
+  <si>
+    <t>A1434705</t>
+  </si>
+  <si>
+    <t>A1434706</t>
+  </si>
+  <si>
+    <t>A1434707</t>
+  </si>
+  <si>
+    <t>A1434708</t>
+  </si>
+  <si>
+    <t>A1434709</t>
+  </si>
+  <si>
+    <t>A1434710</t>
+  </si>
+  <si>
+    <t>A1434711</t>
+  </si>
+  <si>
+    <t>A1434712</t>
+  </si>
+  <si>
+    <t>A1435201</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_5938</t>
+  </si>
+  <si>
+    <t>20220603-TestAut-PA-35938</t>
+  </si>
+  <si>
+    <t>A1435202</t>
+  </si>
+  <si>
+    <t>A1435203</t>
+  </si>
+  <si>
+    <t>A1435204</t>
+  </si>
+  <si>
+    <t>A1435205</t>
+  </si>
+  <si>
+    <t>A1435206</t>
+  </si>
+  <si>
+    <t>A1435207</t>
+  </si>
+  <si>
+    <t>A1435208</t>
+  </si>
+  <si>
+    <t>A1435209</t>
+  </si>
+  <si>
+    <t>A1435210</t>
+  </si>
+  <si>
+    <t>A1435211</t>
+  </si>
+  <si>
+    <t>A1435212</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1684,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1606,10 +1693,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1648,13 +1735,13 @@
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1671,7 +1758,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1680,10 +1767,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1722,13 +1809,13 @@
         <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1745,7 +1832,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1754,10 +1841,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1796,13 +1883,13 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1819,7 +1906,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1828,10 +1915,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1870,13 +1957,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1893,7 +1980,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1902,10 +1989,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1944,13 +2031,13 @@
         <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1967,7 +2054,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1976,10 +2063,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -2018,13 +2105,13 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -2041,7 +2128,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -2050,10 +2137,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -2092,13 +2179,13 @@
         <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -2115,7 +2202,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2124,10 +2211,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2166,13 +2253,13 @@
         <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -2189,7 +2276,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2198,10 +2285,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2240,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2263,7 +2350,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -2272,10 +2359,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2314,13 +2401,13 @@
         <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2337,7 +2424,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2346,10 +2433,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2388,13 +2475,13 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2411,7 +2498,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2420,10 +2507,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2462,13 +2549,13 @@
         <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/PA_Config_Sample_Metadata_Upload.xlsx
+++ b/Excel/PA_Config_Sample_Metadata_Upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="422">
   <si>
     <t>Result ID</t>
   </si>
@@ -1199,6 +1199,93 @@
   </si>
   <si>
     <t>A1435212</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge5002</t>
+  </si>
+  <si>
+    <t>A0958401</t>
+  </si>
+  <si>
+    <t>20220614-TestAut-PA-25002</t>
+  </si>
+  <si>
+    <t>A0958402</t>
+  </si>
+  <si>
+    <t>A0958403</t>
+  </si>
+  <si>
+    <t>A0958404</t>
+  </si>
+  <si>
+    <t>A0958405</t>
+  </si>
+  <si>
+    <t>A0958406</t>
+  </si>
+  <si>
+    <t>A0958407</t>
+  </si>
+  <si>
+    <t>A0958408</t>
+  </si>
+  <si>
+    <t>A0958409</t>
+  </si>
+  <si>
+    <t>A0958410</t>
+  </si>
+  <si>
+    <t>A0958411</t>
+  </si>
+  <si>
+    <t>A0958412</t>
+  </si>
+  <si>
+    <t>A0958901</t>
+  </si>
+  <si>
+    <t>SMatrix_Salm_5002</t>
+  </si>
+  <si>
+    <t>20220614-TestAut-PA-35002</t>
+  </si>
+  <si>
+    <t>A0958902</t>
+  </si>
+  <si>
+    <t>A0958903</t>
+  </si>
+  <si>
+    <t>A0958904</t>
+  </si>
+  <si>
+    <t>A0958905</t>
+  </si>
+  <si>
+    <t>A0958906</t>
+  </si>
+  <si>
+    <t>A0958907</t>
+  </si>
+  <si>
+    <t>A0958908</t>
+  </si>
+  <si>
+    <t>A0958909</t>
+  </si>
+  <si>
+    <t>A0958910</t>
+  </si>
+  <si>
+    <t>A0958911</t>
+  </si>
+  <si>
+    <t>A0958912</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1771,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1693,10 +1780,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1735,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1758,7 +1845,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1767,10 +1854,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1809,13 +1896,13 @@
         <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1832,7 +1919,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1841,10 +1928,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1883,13 +1970,13 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1906,7 +1993,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1915,10 +2002,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1957,13 +2044,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1980,7 +2067,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1989,10 +2076,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -2031,13 +2118,13 @@
         <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -2054,7 +2141,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -2063,10 +2150,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -2105,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -2128,7 +2215,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -2137,10 +2224,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -2179,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -2202,7 +2289,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2211,10 +2298,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2253,13 +2340,13 @@
         <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -2276,7 +2363,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2285,10 +2372,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2327,13 +2414,13 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2350,7 +2437,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -2359,10 +2446,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2401,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2424,7 +2511,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2433,10 +2520,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2475,13 +2562,13 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2498,7 +2585,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2507,10 +2594,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2549,13 +2636,13 @@
         <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
